--- a/doc/新建文件夹/201708044202-张晓芳/学习记录.xlsx
+++ b/doc/新建文件夹/201708044202-张晓芳/学习记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF8B1D-D895-47C1-A2F4-114F93A9400C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BDA9C-2ECA-466D-868A-35A82C9C0B77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,44 +20,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>2019/4/1 8:30--10:30</t>
   </si>
   <si>
+    <t>写自己的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组熟练掌握实例题模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/4/15 8:30--10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练掌握Git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/5/21 20:00--22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写自己的实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/5/22 6:00--8:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现自动建表</t>
+  </si>
+  <si>
+    <t>小组讨论项目实例题模块</t>
+  </si>
+  <si>
+    <t>2019/4/4 20:30--22:30</t>
+  </si>
+  <si>
+    <t>下载mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/4/5 20:30--22:30</t>
+  </si>
+  <si>
+    <t>安装数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/20 20:00--22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习dao层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/21 20:00--22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/23 6:00--8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善dao层的实体以及测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/23 20:00--22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了关于框架的相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/24 20:00--22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了自动建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/25 14:30--16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相关的service的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/25 18:30--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功完成实例提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/27 20:00--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写自己的service层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/28 20:00--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成service并提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,13 +160,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,56 +451,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
